--- a/VYSTUP/data.xlsx
+++ b/VYSTUP/data.xlsx
@@ -2365,12 +2365,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="cs-CZ"/>
-              <a:t>DB LIKEE</a:t>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>JAVA LIKEE 1 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 n-run</a:t>
+              <a:t>n-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4100,12 +4102,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="cs-CZ"/>
-              <a:t>DB LIKEE</a:t>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>JAVA LIKEE 10</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 first-run</a:t>
+              <a:t> first-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5835,12 +5839,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="cs-CZ"/>
-              <a:t>DB LIKEE</a:t>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>JAVA LIKEE 10 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 n-run</a:t>
+              <a:t>n-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7570,12 +7576,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="cs-CZ"/>
-              <a:t>DB LIKEE</a:t>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>JAVA LIKEE 100 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 first-run</a:t>
+              <a:t>first-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9305,12 +9313,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="cs-CZ"/>
-              <a:t>DB LIKEE</a:t>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>JAVA LIKEE 100 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 n-run</a:t>
+              <a:t>n-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11041,11 +11051,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="cs-CZ"/>
-              <a:t>DB LIKEE</a:t>
+              <a:t>JAVA LIKEE</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 first-run</a:t>
+              <a:t> 1000 first-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12775,12 +12785,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="cs-CZ"/>
-              <a:t>DB LIKEE</a:t>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>JAVA LIKEE 1000</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 n-run</a:t>
+              <a:t> n-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -16250,7 +16262,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 first-run</a:t>
+              <a:t> 10 first-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -17985,7 +17997,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 n-run</a:t>
+              <a:t> 10 n-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -19720,7 +19732,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 first-run</a:t>
+              <a:t> 100 first-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -20363,10 +20375,10 @@
                   <c:v>152623680</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>177901741</c:v>
+                  <c:v>146820081</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>343319932</c:v>
+                  <c:v>169547310</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>192377918</c:v>
@@ -20523,13 +20535,13 @@
                   <c:v>141324494</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101167791</c:v>
+                  <c:v>130020903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>324442760</c:v>
+                  <c:v>156755361</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>191893894</c:v>
+                  <c:v>170881586</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>225765182</c:v>
@@ -21190,7 +21202,7 @@
                   <c:v>167489912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>290965477</c:v>
+                  <c:v>186031043</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>221762858</c:v>
@@ -21455,7 +21467,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 n-run</a:t>
+              <a:t> 100 n-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -22098,10 +22110,10 @@
                   <c:v>14499187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19010917</c:v>
+                  <c:v>24522534</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32321551</c:v>
+                  <c:v>39293093</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>42959645</c:v>
@@ -22258,13 +22270,13 @@
                   <c:v>14461711</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18267431</c:v>
+                  <c:v>21335241</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31693917</c:v>
+                  <c:v>36444611</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43237585</c:v>
+                  <c:v>48736116</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>53164553</c:v>
@@ -23190,7 +23202,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 first-run</a:t>
+              <a:t> 1000 first-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -24925,7 +24937,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 n-run</a:t>
+              <a:t> 1000 n-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -26655,12 +26667,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="cs-CZ"/>
-              <a:t>DB LIKEE</a:t>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>JAVA LIKEE 1 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> 1 first-run</a:t>
+              <a:t>first-run</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -37990,7 +38004,7 @@
   <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43023,7 +43037,7 @@
   <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48055,11 +48069,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F88FA2-C4B0-447E-90E5-FAE055590F45}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I173" sqref="F1:I173"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -49998,10 +50015,10 @@
         <v>112</v>
       </c>
       <c r="H67">
-        <v>177901741</v>
+        <v>146820081</v>
       </c>
       <c r="I67">
-        <v>19010917</v>
+        <v>24522534</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -50027,10 +50044,10 @@
         <v>1111</v>
       </c>
       <c r="H68">
-        <v>343319932</v>
+        <v>169547310</v>
       </c>
       <c r="I68">
-        <v>32321551</v>
+        <v>39293093</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -50549,10 +50566,10 @@
         <v>112</v>
       </c>
       <c r="H86">
-        <v>101167791</v>
+        <v>130020903</v>
       </c>
       <c r="I86">
-        <v>18267431</v>
+        <v>21335241</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -50578,10 +50595,10 @@
         <v>1111</v>
       </c>
       <c r="H87">
-        <v>324442760</v>
+        <v>156755361</v>
       </c>
       <c r="I87">
-        <v>31693917</v>
+        <v>36444611</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -50607,10 +50624,10 @@
         <v>1111</v>
       </c>
       <c r="H88">
-        <v>191893894</v>
+        <v>170881586</v>
       </c>
       <c r="I88">
-        <v>43237585</v>
+        <v>48736116</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -52956,7 +52973,7 @@
         <v>1111</v>
       </c>
       <c r="H169">
-        <v>290965477</v>
+        <v>186031043</v>
       </c>
       <c r="I169">
         <v>31191786</v>
@@ -53089,7 +53106,7 @@
   <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58121,8 +58138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD48043-B382-4213-99B3-854FD351F274}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I173"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68188,7 +68205,7 @@
   <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73220,8 +73237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF676A8F-1764-46F8-9202-5FB274FF6DD1}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="M181" sqref="M181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VYSTUP/data.xlsx
+++ b/VYSTUP/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7965" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db like 1" sheetId="4" r:id="rId1"/>
@@ -23691,10 +23691,10 @@
                   <c:v>215165566</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>328376041</c:v>
+                  <c:v>238709026</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>178002400</c:v>
+                  <c:v>189736509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24624,7 +24624,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>142752562</c:v>
+                  <c:v>83894064</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>89810919</c:v>
@@ -25426,10 +25426,10 @@
                   <c:v>26642441</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38645703</c:v>
+                  <c:v>40620421</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48415006</c:v>
+                  <c:v>49116463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26359,7 +26359,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1397659</c:v>
+                  <c:v>1448947</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>312527</c:v>
@@ -38003,8 +38003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535058C5-CF2A-4B64-86EF-340017F19B01}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48069,7 +48069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F88FA2-C4B0-447E-90E5-FAE055590F45}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
@@ -53105,11 +53105,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76112FFD-F21B-496B-9939-4B44C8BDA82A}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -54555,10 +54558,10 @@
         <v>111</v>
       </c>
       <c r="H50">
-        <v>328376041</v>
+        <v>238709026</v>
       </c>
       <c r="I50">
-        <v>38645703</v>
+        <v>40620421</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -54584,10 +54587,10 @@
         <v>111</v>
       </c>
       <c r="H51">
-        <v>178002400</v>
+        <v>189736509</v>
       </c>
       <c r="I51">
-        <v>48415006</v>
+        <v>49116463</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -57542,10 +57545,10 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>142752562</v>
+        <v>83894064</v>
       </c>
       <c r="I153">
-        <v>1397659</v>
+        <v>1448947</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -58138,7 +58141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD48043-B382-4213-99B3-854FD351F274}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
@@ -63171,7 +63174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D94FDC2-DDE0-47CE-A749-B7BDF6CC3302}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -68204,7 +68207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F950BC6-4807-4B76-82E4-D01B78B10E9E}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
@@ -73237,7 +73240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF676A8F-1764-46F8-9202-5FB274FF6DD1}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
